--- a/Lista100225.xlsx
+++ b/Lista100225.xlsx
@@ -1,181 +1,201 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28605"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\506928Pj2025.1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\506928Pj2025.1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A627D4DD-DF48-4790-BEB0-A584F4884148}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC56F027-3EFC-412C-A64E-909E55E0339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15555" windowHeight="12195" xr2:uid="{712C4C46-C2B5-41C9-BCE3-9C918E3FEBD9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{712C4C46-C2B5-41C9-BCE3-9C918E3FEBD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Funcao_SE" sheetId="1" r:id="rId1"/>
     <sheet name="SE_Aninhado" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+  <si>
+    <t>VENDAS</t>
+  </si>
+  <si>
+    <t>DESCONTOS</t>
+  </si>
+  <si>
+    <t>BOLETIM</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>Per_Desc.</t>
+  </si>
+  <si>
+    <t>Desconto</t>
+  </si>
+  <si>
+    <t>Pço_Novo</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Percentual</t>
+  </si>
+  <si>
+    <t>1º_Bim.</t>
+  </si>
+  <si>
+    <t>2º_Bim.</t>
+  </si>
+  <si>
+    <t>3º_Bim.</t>
+  </si>
+  <si>
+    <t>4º_Bim.</t>
+  </si>
+  <si>
+    <t>5º_Bim.</t>
+  </si>
+  <si>
+    <t>MÉDIA</t>
+  </si>
+  <si>
+    <t>CONCEITO</t>
+  </si>
+  <si>
+    <t>PC Desktop</t>
+  </si>
+  <si>
+    <t>&gt;= 2500</t>
+  </si>
   <si>
     <t>Disciplina1</t>
   </si>
   <si>
+    <t>Centrífuga</t>
+  </si>
+  <si>
+    <t>&lt;2500</t>
+  </si>
+  <si>
     <t>Disciplina2</t>
   </si>
   <si>
+    <t>Sofá</t>
+  </si>
+  <si>
     <t>Disciplina3</t>
   </si>
   <si>
+    <t>Tanquinho</t>
+  </si>
+  <si>
     <t>Disciplina4</t>
   </si>
   <si>
-    <t>1º_Bim.</t>
-  </si>
-  <si>
-    <t>2º_Bim.</t>
-  </si>
-  <si>
-    <t>3º_Bim.</t>
-  </si>
-  <si>
-    <t>4º_Bim.</t>
-  </si>
-  <si>
-    <t>5º_Bim.</t>
-  </si>
-  <si>
-    <t>MÉDIA</t>
-  </si>
-  <si>
-    <t>CONCEITO</t>
-  </si>
-  <si>
-    <t>BOLETIM</t>
-  </si>
-  <si>
-    <t>DESCONTOS</t>
-  </si>
-  <si>
-    <t>&gt;= 2500</t>
-  </si>
-  <si>
-    <t>&lt;2500</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Percentual</t>
-  </si>
-  <si>
-    <t>Produto</t>
-  </si>
-  <si>
-    <t>Preço</t>
-  </si>
-  <si>
-    <t>Desconto</t>
-  </si>
-  <si>
-    <t>VENDAS</t>
-  </si>
-  <si>
-    <t>Pço_Novo</t>
+    <t>Cama + Colchão</t>
+  </si>
+  <si>
+    <t>BÔNUS GANHO</t>
+  </si>
+  <si>
+    <t>Usuário</t>
+  </si>
+  <si>
+    <t>Pontuaçao</t>
+  </si>
+  <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>Bônus</t>
+  </si>
+  <si>
+    <t>Kaio</t>
+  </si>
+  <si>
+    <t>Vinícius</t>
+  </si>
+  <si>
+    <t>Antônio</t>
+  </si>
+  <si>
+    <t>Ezequiel</t>
+  </si>
+  <si>
+    <t>Metas</t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>Conta</t>
+  </si>
+  <si>
+    <t>Tx_Com.</t>
+  </si>
+  <si>
+    <t>%Bonus</t>
+  </si>
+  <si>
+    <t>Guilherme</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Funcionários</t>
+  </si>
+  <si>
+    <t>Contas</t>
+  </si>
+  <si>
+    <t>Comissão</t>
+  </si>
+  <si>
+    <t>Ven+Com+Cont</t>
+  </si>
+  <si>
+    <t>Bônus2</t>
+  </si>
+  <si>
+    <t>PRAZO DE ENTRADA E DESCONTOS</t>
   </si>
   <si>
     <t>Cliente</t>
   </si>
   <si>
     <t>PrazoPgto</t>
-  </si>
-  <si>
-    <t>PC Desktop</t>
-  </si>
-  <si>
-    <t>Centrífuga</t>
-  </si>
-  <si>
-    <t>Tanquinho</t>
-  </si>
-  <si>
-    <t>Sofá</t>
-  </si>
-  <si>
-    <t>Cama + Colchão</t>
-  </si>
-  <si>
-    <t>Guilherme</t>
-  </si>
-  <si>
-    <t>Antônio</t>
-  </si>
-  <si>
-    <t>Kaio</t>
-  </si>
-  <si>
-    <t>Vinícius</t>
-  </si>
-  <si>
-    <t>Ezequiel</t>
-  </si>
-  <si>
-    <t>PRAZO DE ENTRADA E DESCONTOS</t>
-  </si>
-  <si>
-    <t>Usuário</t>
-  </si>
-  <si>
-    <t>Pontuaçao</t>
-  </si>
-  <si>
-    <t>Idade</t>
-  </si>
-  <si>
-    <t>Bônus</t>
-  </si>
-  <si>
-    <t>BÔNUS GANHO</t>
-  </si>
-  <si>
-    <t>Valores</t>
-  </si>
-  <si>
-    <t>Metas</t>
-  </si>
-  <si>
-    <t>Vendas</t>
-  </si>
-  <si>
-    <t>Conta</t>
-  </si>
-  <si>
-    <t>%Bonus</t>
-  </si>
-  <si>
-    <t>Tx_Com.</t>
-  </si>
-  <si>
-    <t>Funcionários</t>
-  </si>
-  <si>
-    <t>Contas</t>
-  </si>
-  <si>
-    <t>Comissão</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -185,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,7 +303,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -301,15 +321,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -319,7 +335,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -367,7 +389,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -663,188 +685,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D6D6E9-91B2-4511-BF04-60E16A9793D1}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="12" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="10"/>
+      <c r="H1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="K1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="I1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="B3" s="7">
         <v>4000</v>
       </c>
       <c r="C3" s="8">
-        <f>IF(B3&gt;=2500,$G$3,$G$4)</f>
+        <f>IF(B3&gt;=2500,$I$3,$I$4)</f>
         <v>0.2</v>
       </c>
       <c r="D3" s="7">
         <f>PRODUCT(B3,C3)</f>
         <v>800</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="E3" s="7">
+        <f>B3-D3</f>
+        <v>3200</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5">
         <v>0.2</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3">
         <v>2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="M3" s="3">
         <v>9</v>
       </c>
-      <c r="L3" s="3">
+      <c r="N3" s="3">
         <v>7</v>
       </c>
-      <c r="M3" s="3">
+      <c r="O3" s="3">
         <v>6</v>
       </c>
-      <c r="N3" s="3">
+      <c r="P3" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O3" s="3">
-        <f>AVERAGE(J3:N3)</f>
+      <c r="Q3" s="3">
+        <f>AVERAGE(L3:P3)</f>
         <v>6.4599999999999991</v>
       </c>
-      <c r="P3" s="1" t="str">
-        <f>IF(O3&gt;=6,"Aprovado","Reprovado")</f>
+      <c r="R3" s="1" t="str">
+        <f>IF(Q3&gt;=6,"Aprovado","Reprovado")</f>
         <v>Aprovado</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7">
         <v>633.29</v>
       </c>
       <c r="C4" s="8">
-        <f t="shared" ref="C4:C7" si="0">IF(B4&gt;=2500,$G$3,$G$4)</f>
+        <f t="shared" ref="C4:C7" si="0">IF(B4&gt;=2500,$I$3,$I$4)</f>
         <v>0.15</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:D7" si="1">PRODUCT(B4,C4)</f>
         <v>94.993499999999997</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E7" si="2">B4-D4</f>
+        <v>538.29649999999992</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="5">
         <v>0.15</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3">
         <v>4</v>
       </c>
-      <c r="K4" s="3">
+      <c r="M4" s="3">
         <v>10</v>
       </c>
-      <c r="L4" s="3">
+      <c r="N4" s="3">
         <v>6</v>
       </c>
-      <c r="M4" s="3">
+      <c r="O4" s="3">
         <v>7</v>
       </c>
-      <c r="N4" s="3">
+      <c r="P4" s="3">
         <v>7</v>
       </c>
-      <c r="O4" s="3">
-        <f t="shared" ref="O4:O6" si="2">AVERAGE(J4:N4)</f>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4:Q6" si="3">AVERAGE(L4:P4)</f>
         <v>6.8</v>
       </c>
-      <c r="P4" s="1" t="str">
-        <f t="shared" ref="P4:P6" si="3">IF(O4&gt;=6,"Aprovado","Reprovado")</f>
+      <c r="R4" s="1" t="str">
+        <f t="shared" ref="R4:R6" si="4">IF(Q4&gt;=6,"Aprovado","Reprovado")</f>
         <v>Aprovado</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7">
         <v>2500</v>
@@ -857,36 +899,41 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="E5" s="7">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="3">
         <v>9</v>
       </c>
-      <c r="K5" s="3">
+      <c r="M5" s="3">
         <v>10</v>
       </c>
-      <c r="L5" s="3">
+      <c r="N5" s="3">
         <v>5</v>
       </c>
-      <c r="M5" s="3">
+      <c r="O5" s="3">
         <v>4</v>
       </c>
-      <c r="N5" s="3">
+      <c r="P5" s="3">
         <v>1</v>
       </c>
-      <c r="O5" s="3">
-        <f t="shared" si="2"/>
+      <c r="Q5" s="3">
+        <f t="shared" si="3"/>
         <v>5.8</v>
       </c>
-      <c r="P5" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="R5" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>Reprovado</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7">
         <v>702.14</v>
@@ -899,36 +946,41 @@
         <f t="shared" si="1"/>
         <v>105.321</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="E6" s="7">
+        <f t="shared" si="2"/>
+        <v>596.81899999999996</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="3">
         <v>8</v>
       </c>
-      <c r="K6" s="3">
+      <c r="M6" s="3">
         <v>9.5</v>
       </c>
-      <c r="L6" s="3">
+      <c r="N6" s="3">
         <v>3.5</v>
       </c>
-      <c r="M6" s="3">
+      <c r="O6" s="3">
         <v>4.5</v>
       </c>
-      <c r="N6" s="3">
+      <c r="P6" s="3">
         <v>5</v>
       </c>
-      <c r="O6" s="3">
-        <f t="shared" si="2"/>
+      <c r="Q6" s="3">
+        <f t="shared" si="3"/>
         <v>6.1</v>
       </c>
-      <c r="P6" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="R6" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>Aprovado</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7">
         <v>2501.0100000000002</v>
@@ -941,32 +993,41 @@
         <f t="shared" si="1"/>
         <v>500.20200000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E7" s="7">
+        <f t="shared" si="2"/>
+        <v>2000.8080000000002</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1">
         <v>1000</v>
@@ -979,9 +1040,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1">
         <v>3000</v>
@@ -994,9 +1055,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
         <v>1000</v>
@@ -1009,9 +1070,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1">
         <v>2000</v>
@@ -1023,28 +1084,28 @@
         <f>AND(B14&gt;=2000,C14&gt;=35)</f>
         <v>1</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="K14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="B15" s="1">
         <v>3000</v>
@@ -1056,95 +1117,203 @@
         <f>AND(B15&gt;=2000,C15&gt;=35)</f>
         <v>1</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="K15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2000</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>500</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="7">
+        <v>400</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2100</v>
+      </c>
+      <c r="D19" s="7">
+        <f>B19*$N$15</f>
         <v>40</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="E19" s="7">
+        <f>SUM(B19:D19)</f>
+        <v>2540</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <f>AND(B19&gt;=$L$15,C19&gt;=$M$15)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <f>IF(F19 = TRUE,PRODUCT(E19,$P$15),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2050</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:D23" si="5">B20*$N$15</f>
+        <v>100</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" ref="E20:E23" si="6">SUM(B20:D20)</f>
+        <v>3150</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <f t="shared" ref="F20:F23" si="7">AND(B20&gt;=$L$15,C20&gt;=$M$15)</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" ref="G20:G23" si="8">IF(F20 = TRUE,PRODUCT(E20,$P$15),0)</f>
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="7">
+        <v>800</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3900</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="6"/>
+        <v>4780</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4000</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="6"/>
+        <v>5400</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="B23" s="7">
+        <v>8000</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4000</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="6"/>
+        <v>12800</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="8"/>
+        <v>640</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:O6">
+  <conditionalFormatting sqref="L3:Q6">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>6</formula>
     </cfRule>
@@ -1152,7 +1321,7 @@
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P6">
+  <conditionalFormatting sqref="R3:R6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Reprovado"</formula>
     </cfRule>
@@ -1170,10 +1339,10 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1184,27 +1353,27 @@
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
+      <c r="A1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="7">
         <v>413.36</v>
@@ -1214,9 +1383,9 @@
         <v>50% entrada / 50% 30DD</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="7">
         <v>500</v>
@@ -1226,9 +1395,9 @@
         <v>50% entrada / 50% 30DD</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7">
         <v>1500</v>
@@ -1238,9 +1407,9 @@
         <v>50% entrada / 50% 30/60DD</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7">
         <v>502.11</v>
@@ -1250,9 +1419,9 @@
         <v>50% entrada / 50% 30/60DD</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B7" s="7">
         <v>1601.39</v>
@@ -1268,4 +1437,294 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CD51460BBB3BD64989C0AF0085EB7E4E" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="772a0eff5ddcf970ed94a7305f4a65bc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="29c85e31-c0e5-4fba-ab60-4fce8ca17cbc" xmlns:ns3="86243fb6-e625-4153-bf24-3dbb8808cb3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9fc1265071d568dc0dcb4901e260fdde" ns2:_="" ns3:_="">
+    <xsd:import namespace="29c85e31-c0e5-4fba-ab60-4fce8ca17cbc"/>
+    <xsd:import namespace="86243fb6-e625-4153-bf24-3dbb8808cb3e"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns3:AULASESCRITAS" minOccurs="0"/>
+                <xsd:element ref="ns3:Indentidadevisualaula4" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="29c85e31-c0e5-4fba-ab60-4fce8ca17cbc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{70672001-ba53-4cf3-bc98-583cff500914}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="29c85e31-c0e5-4fba-ab60-4fce8ca17cbc">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="86243fb6-e625-4153-bf24-3dbb8808cb3e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e9a2855a-918e-4771-8d49-1fa7ae9a9e76" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="23" nillable="true" ma:displayName="Status de liberação" ma:internalName="Status_x0020_de_x0020_libera_x00e7__x00e3_o">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="AULASESCRITAS" ma:index="24" nillable="true" ma:displayName="AULAS ESCRITAS" ma:description="Descrição" ma:format="Dropdown" ma:internalName="AULASESCRITAS">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Indentidadevisualaula4" ma:index="25" nillable="true" ma:displayName="Indentidade visual aula 4" ma:format="Thumbnail" ma:internalName="Indentidadevisualaula4">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Indentidadevisualaula4 xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="29c85e31-c0e5-4fba-ab60-4fce8ca17cbc" xsi:nil="true"/>
+    <AULASESCRITAS xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{689F3F42-B1B9-43BC-BAE0-7AA7B733D681}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E473ED67-7465-46F4-B4C6-F02684F586CB}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC22C753-7FC4-454F-B232-D941561B354D}"/>
 </file>